--- a/data/trans_orig/P1416-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21A65489-0FC2-4B11-9B97-52D48DC376BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2D91B1A-E781-4668-AD28-0A9293D21E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6C81A83B-AE55-46E6-ADC0-2684E58BA1CE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A28A4E31-8CC1-4132-AC79-B00F64071864}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="650">
   <si>
     <t>Población con diagnóstico de alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1885 +95,1900 @@
     <t>5,56%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>2,84%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
   </si>
   <si>
     <t>91,57%</t>
   </si>
   <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
   </si>
   <si>
     <t>95,43%</t>
   </si>
   <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
   </si>
   <si>
     <t>95,78%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,73%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
   </si>
   <si>
     <t>94,94%</t>
   </si>
   <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,73%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>90,32%</t>
   </si>
   <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>87,87%</t>
   </si>
   <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
   </si>
   <si>
     <t>89,02%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
   </si>
 </sst>
 </file>
@@ -2385,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7916FD0B-D07E-4A77-9E66-E93772FB9906}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89616C9-E271-48A5-A305-7C24DC135CE9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2987,13 +3002,13 @@
         <v>23749</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -3002,13 +3017,13 @@
         <v>37518</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3038,13 @@
         <v>305076</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>311</v>
@@ -3038,13 +3053,13 @@
         <v>311663</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>608</v>
@@ -3053,13 +3068,13 @@
         <v>616740</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,7 +3130,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3133,7 +3148,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3148,7 +3163,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3163,7 +3178,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3193,13 @@
         <v>30749</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -3193,13 +3208,13 @@
         <v>42554</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -3208,13 +3223,13 @@
         <v>73303</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3244,13 @@
         <v>327922</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
         <v>342</v>
@@ -3244,13 +3259,13 @@
         <v>328902</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
         <v>674</v>
@@ -3259,13 +3274,13 @@
         <v>656824</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,7 +3336,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3339,7 +3354,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3354,7 +3369,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3369,7 +3384,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,10 +3402,10 @@
         <v>47</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -3399,13 +3414,13 @@
         <v>26592</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M21" s="7">
         <v>41</v>
@@ -3414,13 +3429,13 @@
         <v>44000</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,10 +3453,10 @@
         <v>56</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>174</v>
@@ -3450,13 +3465,13 @@
         <v>181076</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -3465,13 +3480,13 @@
         <v>366976</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,7 +3542,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3545,7 +3560,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3575,7 +3590,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3605,13 @@
         <v>14969</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -3605,13 +3620,13 @@
         <v>25307</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -3620,13 +3635,13 @@
         <v>40276</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3656,13 @@
         <v>255842</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>245</v>
@@ -3656,13 +3671,13 @@
         <v>252837</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>497</v>
@@ -3671,13 +3686,13 @@
         <v>508679</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,7 +3748,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3751,7 +3766,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3766,7 +3781,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3781,7 +3796,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3811,13 @@
         <v>26201</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H29" s="7">
         <v>41</v>
@@ -3811,13 +3826,13 @@
         <v>40914</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -3826,13 +3841,13 @@
         <v>67115</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3862,13 @@
         <v>588826</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H30" s="7">
         <v>580</v>
@@ -3862,13 +3877,13 @@
         <v>597305</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M30" s="7">
         <v>1153</v>
@@ -3877,13 +3892,13 @@
         <v>1186131</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,7 +3954,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3957,7 +3972,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3972,7 +3987,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3987,7 +4002,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +4017,13 @@
         <v>68572</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H33" s="7">
         <v>94</v>
@@ -4017,13 +4032,13 @@
         <v>98471</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M33" s="7">
         <v>163</v>
@@ -4032,13 +4047,13 @@
         <v>167043</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4068,13 @@
         <v>675223</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H34" s="7">
         <v>651</v>
@@ -4068,13 +4083,13 @@
         <v>685040</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M34" s="7">
         <v>1318</v>
@@ -4083,13 +4098,13 @@
         <v>1360263</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,7 +4178,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4178,7 +4193,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4193,7 +4208,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4223,13 @@
         <v>219279</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H37" s="7">
         <v>315</v>
@@ -4223,13 +4238,13 @@
         <v>324030</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M37" s="7">
         <v>527</v>
@@ -4238,13 +4253,13 @@
         <v>543309</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4274,13 @@
         <v>3057265</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H38" s="7">
         <v>2982</v>
@@ -4274,28 +4289,28 @@
         <v>3055168</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M38" s="7">
         <v>5984</v>
       </c>
       <c r="N38" s="7">
-        <v>6112431</v>
+        <v>6112432</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,7 +4352,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -4351,7 +4366,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4375,7 +4390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93AF4D1-E4FE-4DFF-9CCE-F34650DA32FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63FB243-B9FB-4C65-85BA-62E49770A38F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4392,7 +4407,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4497,39 +4512,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,39 +4557,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,39 +4602,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,39 +4647,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,7 +4717,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4732,13 +4747,13 @@
         <v>30227</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -4747,13 +4762,13 @@
         <v>37361</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -4762,13 +4777,13 @@
         <v>67588</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4798,13 @@
         <v>475300</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>446</v>
@@ -4798,13 +4813,13 @@
         <v>486404</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
         <v>893</v>
@@ -4813,13 +4828,13 @@
         <v>961704</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,7 +4908,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4908,7 +4923,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4938,13 +4953,13 @@
         <v>12835</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4953,13 +4968,13 @@
         <v>26920</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -4968,13 +4983,13 @@
         <v>39755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +5004,13 @@
         <v>311211</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>292</v>
@@ -5004,13 +5019,13 @@
         <v>314100</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>599</v>
@@ -5019,13 +5034,13 @@
         <v>625311</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,7 +5096,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5099,7 +5114,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5114,7 +5129,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5129,7 +5144,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5159,13 @@
         <v>38024</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -5159,13 +5174,13 @@
         <v>61549</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -5174,13 +5189,13 @@
         <v>99573</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5210,13 @@
         <v>630696</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H18" s="7">
         <v>571</v>
@@ -5210,13 +5225,13 @@
         <v>614647</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M18" s="7">
         <v>1159</v>
@@ -5225,13 +5240,13 @@
         <v>1245343</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,7 +5302,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5305,7 +5320,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5320,7 +5335,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5335,7 +5350,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5365,13 @@
         <v>16173</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -5365,13 +5380,13 @@
         <v>26131</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M21" s="7">
         <v>42</v>
@@ -5380,13 +5395,13 @@
         <v>42304</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5416,13 @@
         <v>196445</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>94</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>186</v>
@@ -5416,13 +5431,13 @@
         <v>193460</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>366</v>
@@ -5431,13 +5446,13 @@
         <v>389905</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,7 +5508,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5511,7 +5526,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5541,7 +5556,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5571,13 @@
         <v>15908</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -5571,13 +5586,13 @@
         <v>16072</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -5586,13 +5601,13 @@
         <v>31980</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5622,13 @@
         <v>258073</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>254</v>
@@ -5622,13 +5637,13 @@
         <v>263959</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>501</v>
@@ -5637,13 +5652,13 @@
         <v>522032</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,7 +5714,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5717,7 +5732,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5747,7 +5762,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5777,13 @@
         <v>22793</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -5777,13 +5792,13 @@
         <v>39187</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="M29" s="7">
         <v>58</v>
@@ -5792,13 +5807,13 @@
         <v>61980</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5828,13 @@
         <v>639995</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="H30" s="7">
         <v>600</v>
@@ -5828,13 +5843,13 @@
         <v>654666</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>194</v>
+        <v>308</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="M30" s="7">
         <v>1196</v>
@@ -5843,13 +5858,13 @@
         <v>1294661</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>52</v>
+        <v>310</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>35</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,7 +5920,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5923,7 +5938,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5938,7 +5953,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5953,7 +5968,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,13 +5983,13 @@
         <v>39811</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="H33" s="7">
         <v>51</v>
@@ -5983,13 +5998,13 @@
         <v>52971</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>305</v>
+        <v>150</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="M33" s="7">
         <v>88</v>
@@ -5998,13 +6013,13 @@
         <v>92781</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,13 +6034,13 @@
         <v>738265</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="H34" s="7">
         <v>705</v>
@@ -6034,13 +6049,13 @@
         <v>769607</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>315</v>
+        <v>160</v>
       </c>
       <c r="M34" s="7">
         <v>1384</v>
@@ -6049,13 +6064,13 @@
         <v>1507873</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,7 +6144,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6144,7 +6159,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6159,7 +6174,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,13 +6189,13 @@
         <v>175771</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="H37" s="7">
         <v>243</v>
@@ -6189,13 +6204,13 @@
         <v>260191</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="M37" s="7">
         <v>407</v>
@@ -6204,13 +6219,13 @@
         <v>435962</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,13 +6240,13 @@
         <v>3249986</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="H38" s="7">
         <v>3054</v>
@@ -6240,13 +6255,13 @@
         <v>3296843</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="M38" s="7">
         <v>6098</v>
@@ -6255,13 +6270,13 @@
         <v>6546828</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,7 +6332,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6341,7 +6356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AD2451-56E5-4AC5-8B06-AC7B88BE6629}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB4FE82-E623-4DDF-A45E-2F62C68994DF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6358,7 +6373,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6471,7 +6486,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6486,7 +6501,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6501,7 +6516,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,13 +6531,13 @@
         <v>18543</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -6531,13 +6546,13 @@
         <v>27188</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>146</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -6546,13 +6561,13 @@
         <v>45731</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,13 +6582,13 @@
         <v>275218</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="H6" s="7">
         <v>253</v>
@@ -6582,13 +6597,13 @@
         <v>261515</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>154</v>
+        <v>366</v>
       </c>
       <c r="M6" s="7">
         <v>502</v>
@@ -6597,13 +6612,13 @@
         <v>536733</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,7 +6692,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6692,7 +6707,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6722,13 +6737,13 @@
         <v>18437</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="H9" s="7">
         <v>37</v>
@@ -6737,13 +6752,13 @@
         <v>38254</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -6752,13 +6767,13 @@
         <v>56691</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>362</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,10 +6791,10 @@
         <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="H10" s="7">
         <v>447</v>
@@ -6788,13 +6803,13 @@
         <v>484830</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>905</v>
@@ -6803,13 +6818,13 @@
         <v>968968</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6898,7 +6913,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6913,7 +6928,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,13 +6943,13 @@
         <v>13971</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>382</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -6943,13 +6958,13 @@
         <v>13799</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>41</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -6958,13 +6973,13 @@
         <v>27770</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,13 +6994,13 @@
         <v>304594</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>238</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="H14" s="7">
         <v>317</v>
@@ -6994,13 +7009,13 @@
         <v>322510</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>637</v>
@@ -7009,13 +7024,13 @@
         <v>627104</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,7 +7086,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7089,7 +7104,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7104,7 +7119,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7119,7 +7134,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,13 +7149,13 @@
         <v>19575</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -7149,13 +7164,13 @@
         <v>34897</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -7164,13 +7179,13 @@
         <v>54472</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,13 +7200,13 @@
         <v>350389</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>397</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>287</v>
+        <v>404</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="H18" s="7">
         <v>325</v>
@@ -7200,13 +7215,13 @@
         <v>352386</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="M18" s="7">
         <v>662</v>
@@ -7215,13 +7230,13 @@
         <v>702775</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,7 +7292,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7295,7 +7310,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7310,7 +7325,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7325,7 +7340,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,13 +7355,13 @@
         <v>11646</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -7355,13 +7370,13 @@
         <v>18594</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -7370,13 +7385,13 @@
         <v>30240</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,13 +7406,13 @@
         <v>199575</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -7406,13 +7421,13 @@
         <v>199993</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>404</v>
@@ -7421,13 +7436,13 @@
         <v>399568</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,7 +7498,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7501,7 +7516,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7516,7 +7531,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7546,13 +7561,13 @@
         <v>16478</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -7561,13 +7576,13 @@
         <v>19510</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -7576,13 +7591,13 @@
         <v>35988</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>396</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7597,13 +7612,13 @@
         <v>246645</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H26" s="7">
         <v>245</v>
@@ -7612,13 +7627,13 @@
         <v>253605</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="M26" s="7">
         <v>487</v>
@@ -7627,13 +7642,13 @@
         <v>500250</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>403</v>
+        <v>198</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,7 +7704,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7707,7 +7722,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7737,7 +7752,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7752,13 +7767,13 @@
         <v>19449</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H29" s="7">
         <v>49</v>
@@ -7767,13 +7782,13 @@
         <v>52772</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>444</v>
+        <v>25</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -7782,13 +7797,13 @@
         <v>72221</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7803,13 +7818,13 @@
         <v>637109</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="H30" s="7">
         <v>597</v>
@@ -7818,13 +7833,13 @@
         <v>638522</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>452</v>
+        <v>34</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="M30" s="7">
         <v>1160</v>
@@ -7833,13 +7848,13 @@
         <v>1275631</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,7 +7910,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7913,7 +7928,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7928,7 +7943,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7943,7 +7958,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7958,13 +7973,13 @@
         <v>49369</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="H33" s="7">
         <v>71</v>
@@ -7973,13 +7988,13 @@
         <v>76558</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>396</v>
+        <v>466</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="M33" s="7">
         <v>119</v>
@@ -7988,13 +8003,13 @@
         <v>125927</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8009,13 +8024,13 @@
         <v>729214</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="H34" s="7">
         <v>684</v>
@@ -8024,13 +8039,13 @@
         <v>749609</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>403</v>
+        <v>474</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="M34" s="7">
         <v>1386</v>
@@ -8039,13 +8054,13 @@
         <v>1478823</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8119,7 +8134,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8134,7 +8149,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8149,7 +8164,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8164,13 +8179,13 @@
         <v>167469</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>377</v>
+        <v>70</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>326</v>
+        <v>69</v>
       </c>
       <c r="H37" s="7">
         <v>266</v>
@@ -8179,13 +8194,13 @@
         <v>281571</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>409</v>
+        <v>482</v>
       </c>
       <c r="M37" s="7">
         <v>426</v>
@@ -8194,13 +8209,13 @@
         <v>449040</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>323</v>
+        <v>483</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8215,13 +8230,13 @@
         <v>3226881</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="H38" s="7">
         <v>3072</v>
@@ -8230,13 +8245,13 @@
         <v>3262971</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>416</v>
+        <v>488</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="M38" s="7">
         <v>6143</v>
@@ -8245,13 +8260,13 @@
         <v>6489852</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>333</v>
+        <v>490</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,7 +8322,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -8331,7 +8346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A615E7-8E13-42F7-A7CB-81C9EB5A1BB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E5327E-F319-4B9F-B57E-34FC6E4E6F99}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8348,7 +8363,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8461,7 +8476,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8476,7 +8491,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8491,7 +8506,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8506,13 +8521,13 @@
         <v>30924</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -8521,13 +8536,13 @@
         <v>13634</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>401</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -8536,13 +8551,13 @@
         <v>44557</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>489</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8557,13 +8572,13 @@
         <v>229374</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="H6" s="7">
         <v>508</v>
@@ -8572,13 +8587,13 @@
         <v>257769</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="M6" s="7">
         <v>813</v>
@@ -8587,13 +8602,13 @@
         <v>487143</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>495</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8667,7 +8682,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8682,7 +8697,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8697,7 +8712,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8712,13 +8727,13 @@
         <v>63891</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>499</v>
+        <v>151</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="H9" s="7">
         <v>90</v>
@@ -8727,13 +8742,13 @@
         <v>69757</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="M9" s="7">
         <v>132</v>
@@ -8742,13 +8757,13 @@
         <v>133648</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8763,13 +8778,13 @@
         <v>454336</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>621</v>
@@ -8778,13 +8793,13 @@
         <v>479104</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="M10" s="7">
         <v>960</v>
@@ -8793,13 +8808,13 @@
         <v>933440</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8873,7 +8888,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8888,7 +8903,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8903,7 +8918,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8918,13 +8933,13 @@
         <v>28988</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -8933,13 +8948,13 @@
         <v>38705</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>345</v>
+        <v>530</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>521</v>
+        <v>106</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -8948,13 +8963,13 @@
         <v>67692</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>523</v>
+        <v>358</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8969,13 +8984,13 @@
         <v>293252</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="H14" s="7">
         <v>482</v>
@@ -8984,13 +8999,13 @@
         <v>334579</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>529</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>536</v>
       </c>
       <c r="M14" s="7">
         <v>812</v>
@@ -8999,13 +9014,13 @@
         <v>627832</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>532</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9061,7 +9076,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9079,7 +9094,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9094,7 +9109,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9109,7 +9124,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9124,13 +9139,13 @@
         <v>16312</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>540</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -9139,13 +9154,13 @@
         <v>22117</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>537</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -9154,13 +9169,13 @@
         <v>38429</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9175,13 +9190,13 @@
         <v>305928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>547</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="H18" s="7">
         <v>569</v>
@@ -9190,13 +9205,13 @@
         <v>406439</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>545</v>
+        <v>290</v>
       </c>
       <c r="M18" s="7">
         <v>848</v>
@@ -9205,13 +9220,13 @@
         <v>712367</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9267,7 +9282,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9285,7 +9300,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9294,13 +9309,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9309,13 +9324,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9330,13 +9345,13 @@
         <v>20380</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>554</v>
+        <v>65</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="H21" s="7">
         <v>55</v>
@@ -9345,13 +9360,13 @@
         <v>27339</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>460</v>
+        <v>562</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="M21" s="7">
         <v>80</v>
@@ -9360,13 +9375,13 @@
         <v>47719</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>558</v>
+        <v>360</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>89</v>
+        <v>564</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9381,13 +9396,13 @@
         <v>176368</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>562</v>
+        <v>73</v>
       </c>
       <c r="H22" s="7">
         <v>434</v>
@@ -9396,13 +9411,13 @@
         <v>203400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="M22" s="7">
         <v>688</v>
@@ -9411,13 +9426,13 @@
         <v>379769</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9473,7 +9488,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9491,7 +9506,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9500,13 +9515,13 @@
         <v>718</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9515,13 +9530,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9536,13 +9551,13 @@
         <v>38520</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H25" s="7">
         <v>82</v>
@@ -9551,13 +9566,13 @@
         <v>48319</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -9566,13 +9581,13 @@
         <v>86838</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9587,13 +9602,13 @@
         <v>237770</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H26" s="7">
         <v>377</v>
@@ -9602,13 +9617,13 @@
         <v>226585</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="M26" s="7">
         <v>701</v>
@@ -9617,13 +9632,13 @@
         <v>464356</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9679,7 +9694,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9697,7 +9712,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9727,7 +9742,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9742,13 +9757,13 @@
         <v>72404</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="H29" s="7">
         <v>163</v>
@@ -9757,13 +9772,13 @@
         <v>117928</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="M29" s="7">
         <v>237</v>
@@ -9772,13 +9787,13 @@
         <v>190333</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9793,13 +9808,13 @@
         <v>551323</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H30" s="7">
         <v>796</v>
@@ -9808,13 +9823,13 @@
         <v>685576</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="M30" s="7">
         <v>1317</v>
@@ -9823,13 +9838,13 @@
         <v>1236898</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9885,7 +9900,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9903,7 +9918,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9912,13 +9927,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9927,13 +9942,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>610</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9948,13 +9963,13 @@
         <v>55835</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="H33" s="7">
         <v>121</v>
@@ -9963,13 +9978,13 @@
         <v>93811</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="M33" s="7">
         <v>167</v>
@@ -9978,13 +9993,13 @@
         <v>149646</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>149</v>
+        <v>619</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9999,13 +10014,13 @@
         <v>803593</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="H34" s="7">
         <v>931</v>
@@ -10014,13 +10029,13 @@
         <v>761251</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="M34" s="7">
         <v>1647</v>
@@ -10029,13 +10044,13 @@
         <v>1564844</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>624</v>
+        <v>217</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10109,7 +10124,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -10118,13 +10133,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10133,13 +10148,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10154,13 +10169,13 @@
         <v>327252</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="H37" s="7">
         <v>625</v>
@@ -10169,13 +10184,13 @@
         <v>431609</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="M37" s="7">
         <v>927</v>
@@ -10184,13 +10199,13 @@
         <v>758862</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>347</v>
+        <v>516</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>595</v>
+        <v>640</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>636</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10205,13 +10220,13 @@
         <v>3051945</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="H38" s="7">
         <v>4718</v>
@@ -10220,13 +10235,13 @@
         <v>3354705</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="M38" s="7">
         <v>7786</v>
@@ -10235,13 +10250,13 @@
         <v>6406650</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10297,7 +10312,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1416-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2D91B1A-E781-4668-AD28-0A9293D21E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EC59921-B2AB-4CCE-AC95-A2276B68B69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A28A4E31-8CC1-4132-AC79-B00F64071864}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{794A4ED0-9E63-4D46-A4A3-AF883EBC0F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="640">
   <si>
     <t>Población con diagnóstico de alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1882 +95,1852 @@
     <t>5,56%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>2,89%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
   </si>
   <si>
     <t>8,57%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,73%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>92,97%</t>
   </si>
   <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>91,12%</t>
   </si>
   <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,73%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
     <t>90,32%</t>
   </si>
   <si>
     <t>89,01%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
   </si>
   <si>
     <t>87,87%</t>
@@ -2400,7 +2370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89616C9-E271-48A5-A305-7C24DC135CE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3046C614-61CF-42E5-A4C7-C11912483157}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3193,13 +3163,13 @@
         <v>30749</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -3208,13 +3178,13 @@
         <v>42554</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -3223,13 +3193,13 @@
         <v>73303</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,13 +3214,13 @@
         <v>327922</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H18" s="7">
         <v>342</v>
@@ -3259,13 +3229,13 @@
         <v>328902</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M18" s="7">
         <v>674</v>
@@ -3274,13 +3244,13 @@
         <v>656824</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,7 +3306,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3354,7 +3324,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3369,7 +3339,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3384,7 +3354,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,10 +3372,10 @@
         <v>47</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -3414,13 +3384,13 @@
         <v>26592</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>41</v>
@@ -3429,13 +3399,13 @@
         <v>44000</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,10 +3423,10 @@
         <v>56</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>174</v>
@@ -3465,13 +3435,13 @@
         <v>181076</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -3480,13 +3450,13 @@
         <v>366976</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,7 +3512,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3560,7 +3530,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3590,7 +3560,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3575,13 @@
         <v>14969</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -3620,13 +3590,13 @@
         <v>25307</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -3635,13 +3605,13 @@
         <v>40276</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3626,13 @@
         <v>255842</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H26" s="7">
         <v>245</v>
@@ -3671,13 +3641,13 @@
         <v>252837</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M26" s="7">
         <v>497</v>
@@ -3686,13 +3656,13 @@
         <v>508679</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,7 +3718,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3766,7 +3736,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3781,7 +3751,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3796,7 +3766,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3781,13 @@
         <v>26201</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H29" s="7">
         <v>41</v>
@@ -3826,13 +3796,13 @@
         <v>40914</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -3862,13 +3832,13 @@
         <v>588826</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H30" s="7">
         <v>580</v>
@@ -3877,13 +3847,13 @@
         <v>597305</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M30" s="7">
         <v>1153</v>
@@ -3892,13 +3862,13 @@
         <v>1186131</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,7 +3924,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4002,7 +3972,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +3987,13 @@
         <v>68572</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H33" s="7">
         <v>94</v>
@@ -4032,13 +4002,13 @@
         <v>98471</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M33" s="7">
         <v>163</v>
@@ -4047,13 +4017,13 @@
         <v>167043</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4038,13 @@
         <v>675223</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H34" s="7">
         <v>651</v>
@@ -4083,13 +4053,13 @@
         <v>685040</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M34" s="7">
         <v>1318</v>
@@ -4098,13 +4068,13 @@
         <v>1360263</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,7 +4148,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4193,7 +4163,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4208,7 +4178,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4193,13 @@
         <v>219279</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H37" s="7">
         <v>315</v>
@@ -4238,13 +4208,13 @@
         <v>324030</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M37" s="7">
         <v>527</v>
@@ -4253,13 +4223,13 @@
         <v>543309</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,16 +4241,16 @@
         <v>3002</v>
       </c>
       <c r="D38" s="7">
-        <v>3057265</v>
+        <v>3057264</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H38" s="7">
         <v>2982</v>
@@ -4289,13 +4259,13 @@
         <v>3055168</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M38" s="7">
         <v>5984</v>
@@ -4304,13 +4274,13 @@
         <v>6112432</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,7 +4292,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -4366,7 +4336,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4390,7 +4360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63FB243-B9FB-4C65-85BA-62E49770A38F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139C2CF-D953-49AE-A601-9B50AA72FD68}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4407,7 +4377,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,39 +4482,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,39 +4527,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,39 +4572,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,39 +4617,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,7 +4687,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4747,13 +4717,13 @@
         <v>30227</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -4762,13 +4732,13 @@
         <v>37361</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -4777,13 +4747,13 @@
         <v>67588</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4768,13 @@
         <v>475300</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>446</v>
@@ -4813,10 +4783,10 @@
         <v>486404</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>220</v>
@@ -4983,7 +4953,7 @@
         <v>39755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>231</v>
@@ -5034,7 +5004,7 @@
         <v>625311</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>239</v>
@@ -5114,7 +5084,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5129,7 +5099,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5174,7 +5144,7 @@
         <v>61549</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>245</v>
@@ -5225,7 +5195,7 @@
         <v>614647</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>253</v>
@@ -5302,7 +5272,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5350,7 +5320,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,7 +5478,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5556,7 +5526,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,7 +5684,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5732,7 +5702,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5783,7 +5753,7 @@
         <v>298</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>105</v>
+        <v>299</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -5792,13 +5762,13 @@
         <v>39187</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>301</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>58</v>
@@ -5831,10 +5801,10 @@
         <v>305</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>114</v>
+        <v>306</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H30" s="7">
         <v>600</v>
@@ -5843,10 +5813,10 @@
         <v>654666</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>309</v>
@@ -5920,7 +5890,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5968,7 +5938,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6001,7 +5971,7 @@
         <v>318</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>319</v>
@@ -6055,7 +6025,7 @@
         <v>327</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="M34" s="7">
         <v>1384</v>
@@ -6144,7 +6114,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6159,7 +6129,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6174,7 +6144,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,10 +6162,10 @@
         <v>331</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H37" s="7">
         <v>243</v>
@@ -6204,13 +6174,13 @@
         <v>260191</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M37" s="7">
         <v>407</v>
@@ -6219,13 +6189,13 @@
         <v>435962</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6210,13 @@
         <v>3249986</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="G38" s="7" t="s">
-        <v>342</v>
+        <v>240</v>
       </c>
       <c r="H38" s="7">
         <v>3054</v>
@@ -6255,13 +6225,13 @@
         <v>3296843</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M38" s="7">
         <v>6098</v>
@@ -6270,13 +6240,13 @@
         <v>6546828</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,7 +6302,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6356,7 +6326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB4FE82-E623-4DDF-A45E-2F62C68994DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD659C2-B08C-4F5A-AED9-A940AB8EA716}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6373,7 +6343,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6486,7 +6456,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6501,7 +6471,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6516,7 +6486,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,13 +6501,13 @@
         <v>18543</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -6546,13 +6516,13 @@
         <v>27188</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -6561,13 +6531,13 @@
         <v>45731</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>359</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,13 +6552,13 @@
         <v>275218</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H6" s="7">
         <v>253</v>
@@ -6597,13 +6567,13 @@
         <v>261515</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M6" s="7">
         <v>502</v>
@@ -6612,13 +6582,13 @@
         <v>536733</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>369</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,7 +6662,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6707,7 +6677,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6737,13 +6707,13 @@
         <v>18437</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H9" s="7">
         <v>37</v>
@@ -6752,13 +6722,13 @@
         <v>38254</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>373</v>
+        <v>266</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -6767,13 +6737,13 @@
         <v>56691</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>267</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,13 +6758,13 @@
         <v>484138</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H10" s="7">
         <v>447</v>
@@ -6803,13 +6773,13 @@
         <v>484830</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M10" s="7">
         <v>905</v>
@@ -6818,13 +6788,13 @@
         <v>968968</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6913,7 +6883,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6928,7 +6898,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,13 +6913,13 @@
         <v>13971</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -6958,13 +6928,13 @@
         <v>13799</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -6973,13 +6943,13 @@
         <v>27770</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,13 +6964,13 @@
         <v>304594</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H14" s="7">
         <v>317</v>
@@ -7009,10 +6979,10 @@
         <v>322510</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>393</v>
@@ -7027,7 +6997,7 @@
         <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>395</v>
@@ -7149,13 +7119,13 @@
         <v>19575</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -7164,13 +7134,13 @@
         <v>34897</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -7179,13 +7149,13 @@
         <v>54472</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7170,13 @@
         <v>350389</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>405</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H18" s="7">
         <v>325</v>
@@ -7215,13 +7185,13 @@
         <v>352386</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="M18" s="7">
         <v>662</v>
@@ -7230,13 +7200,13 @@
         <v>702775</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,7 +7262,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7325,7 +7295,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7340,7 +7310,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7325,13 @@
         <v>11646</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -7370,13 +7340,13 @@
         <v>18594</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>417</v>
+        <v>107</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -7385,13 +7355,13 @@
         <v>30240</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,13 +7376,13 @@
         <v>199575</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -7421,13 +7391,13 @@
         <v>199993</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>404</v>
@@ -7498,7 +7468,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7564,10 +7534,10 @@
         <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -7576,13 +7546,13 @@
         <v>19510</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -7591,13 +7561,13 @@
         <v>35988</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7612,13 +7582,13 @@
         <v>246645</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>441</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>442</v>
+        <v>360</v>
       </c>
       <c r="H26" s="7">
         <v>245</v>
@@ -7627,13 +7597,13 @@
         <v>253605</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="M26" s="7">
         <v>487</v>
@@ -7642,13 +7612,13 @@
         <v>500250</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>198</v>
+        <v>444</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,7 +7674,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7722,7 +7692,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7752,7 +7722,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7767,13 +7737,13 @@
         <v>19449</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="H29" s="7">
         <v>49</v>
@@ -7782,13 +7752,13 @@
         <v>52772</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>25</v>
+        <v>450</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -7800,10 +7770,10 @@
         <v>152</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7818,13 +7788,13 @@
         <v>637109</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="H30" s="7">
         <v>597</v>
@@ -7833,13 +7803,13 @@
         <v>638522</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>34</v>
+        <v>457</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="M30" s="7">
         <v>1160</v>
@@ -7848,13 +7818,13 @@
         <v>1275631</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>462</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7910,7 +7880,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7958,7 +7928,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7973,13 +7943,13 @@
         <v>49369</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H33" s="7">
         <v>71</v>
@@ -7988,13 +7958,13 @@
         <v>76558</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>466</v>
+        <v>171</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>467</v>
+        <v>132</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M33" s="7">
         <v>119</v>
@@ -8003,13 +7973,13 @@
         <v>125927</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>469</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8024,13 +7994,13 @@
         <v>729214</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="H34" s="7">
         <v>684</v>
@@ -8039,13 +8009,13 @@
         <v>749609</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>474</v>
+        <v>181</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>476</v>
+        <v>141</v>
       </c>
       <c r="M34" s="7">
         <v>1386</v>
@@ -8054,13 +8024,13 @@
         <v>1478823</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>478</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,7 +8104,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8149,7 +8119,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8164,7 +8134,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8179,13 +8149,13 @@
         <v>167469</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>69</v>
+        <v>368</v>
       </c>
       <c r="H37" s="7">
         <v>266</v>
@@ -8194,13 +8164,13 @@
         <v>281571</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="M37" s="7">
         <v>426</v>
@@ -8209,13 +8179,13 @@
         <v>449040</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>485</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8230,13 +8200,13 @@
         <v>3226881</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>80</v>
+        <v>477</v>
       </c>
       <c r="H38" s="7">
         <v>3072</v>
@@ -8245,13 +8215,13 @@
         <v>3262971</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="M38" s="7">
         <v>6143</v>
@@ -8260,13 +8230,13 @@
         <v>6489852</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>491</v>
+        <v>218</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,7 +8292,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -8346,7 +8316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E5327E-F319-4B9F-B57E-34FC6E4E6F99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD9DD65-BE0C-41F8-B960-FE2395BCA24F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8363,7 +8333,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8476,7 +8446,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8491,7 +8461,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8506,7 +8476,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8521,13 +8491,13 @@
         <v>30924</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>495</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -8536,13 +8506,13 @@
         <v>13634</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -8551,13 +8521,13 @@
         <v>44557</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8572,13 +8542,13 @@
         <v>229374</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>502</v>
+        <v>237</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="H6" s="7">
         <v>508</v>
@@ -8587,13 +8557,13 @@
         <v>257769</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="M6" s="7">
         <v>813</v>
@@ -8602,13 +8572,13 @@
         <v>487143</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8712,7 +8682,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8727,13 +8697,13 @@
         <v>63891</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>151</v>
+        <v>499</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="H9" s="7">
         <v>90</v>
@@ -8742,13 +8712,13 @@
         <v>69757</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="M9" s="7">
         <v>132</v>
@@ -8757,13 +8727,13 @@
         <v>133648</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>515</v>
+        <v>93</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8778,13 +8748,13 @@
         <v>454336</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>508</v>
       </c>
       <c r="H10" s="7">
         <v>621</v>
@@ -8793,13 +8763,13 @@
         <v>479104</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="M10" s="7">
         <v>960</v>
@@ -8808,13 +8778,13 @@
         <v>933440</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>523</v>
+        <v>101</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8903,7 +8873,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8918,7 +8888,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8933,13 +8903,13 @@
         <v>28988</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>482</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -8948,13 +8918,13 @@
         <v>38705</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>106</v>
+        <v>519</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -8963,13 +8933,13 @@
         <v>67692</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8984,13 +8954,13 @@
         <v>293252</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>488</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="H14" s="7">
         <v>482</v>
@@ -8999,13 +8969,13 @@
         <v>334579</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>525</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="M14" s="7">
         <v>812</v>
@@ -9014,13 +8984,13 @@
         <v>627832</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9094,7 +9064,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9109,7 +9079,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9124,7 +9094,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9139,13 +9109,13 @@
         <v>16312</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>542</v>
+        <v>433</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -9154,13 +9124,13 @@
         <v>22117</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>533</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -9172,10 +9142,10 @@
         <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9190,13 +9160,13 @@
         <v>305928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>548</v>
+        <v>440</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="H18" s="7">
         <v>569</v>
@@ -9205,13 +9175,13 @@
         <v>406439</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>290</v>
+        <v>541</v>
       </c>
       <c r="M18" s="7">
         <v>848</v>
@@ -9223,10 +9193,10 @@
         <v>323</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9282,7 +9252,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9300,7 +9270,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9309,13 +9279,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9324,13 +9294,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9345,13 +9315,13 @@
         <v>20380</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>65</v>
+        <v>550</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="H21" s="7">
         <v>55</v>
@@ -9360,13 +9330,13 @@
         <v>27339</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>562</v>
+        <v>322</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="M21" s="7">
         <v>80</v>
@@ -9375,13 +9345,13 @@
         <v>47719</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>360</v>
+        <v>554</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>564</v>
+        <v>92</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9396,13 +9366,13 @@
         <v>176368</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>73</v>
+        <v>558</v>
       </c>
       <c r="H22" s="7">
         <v>434</v>
@@ -9411,13 +9381,13 @@
         <v>203400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="M22" s="7">
         <v>688</v>
@@ -9426,13 +9396,13 @@
         <v>379769</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9488,7 +9458,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9506,7 +9476,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9521,7 +9491,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9530,13 +9500,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9551,13 +9521,13 @@
         <v>38520</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="H25" s="7">
         <v>82</v>
@@ -9566,13 +9536,13 @@
         <v>48319</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -9581,13 +9551,13 @@
         <v>86838</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9602,13 +9572,13 @@
         <v>237770</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="H26" s="7">
         <v>377</v>
@@ -9617,13 +9587,13 @@
         <v>226585</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="M26" s="7">
         <v>701</v>
@@ -9632,13 +9602,13 @@
         <v>464356</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9694,7 +9664,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9712,7 +9682,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9742,7 +9712,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9757,13 +9727,13 @@
         <v>72404</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="H29" s="7">
         <v>163</v>
@@ -9772,13 +9742,13 @@
         <v>117928</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="M29" s="7">
         <v>237</v>
@@ -9787,13 +9757,13 @@
         <v>190333</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9808,13 +9778,13 @@
         <v>551323</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="H30" s="7">
         <v>796</v>
@@ -9823,13 +9793,13 @@
         <v>685576</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="M30" s="7">
         <v>1317</v>
@@ -9838,13 +9808,13 @@
         <v>1236898</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9900,7 +9870,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9927,13 +9897,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9942,13 +9912,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9963,13 +9933,13 @@
         <v>55835</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="H33" s="7">
         <v>121</v>
@@ -9978,13 +9948,13 @@
         <v>93811</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="M33" s="7">
         <v>167</v>
@@ -9993,13 +9963,13 @@
         <v>149646</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>621</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10014,13 +9984,13 @@
         <v>803593</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="H34" s="7">
         <v>931</v>
@@ -10029,13 +9999,13 @@
         <v>761251</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="M34" s="7">
         <v>1647</v>
@@ -10044,13 +10014,13 @@
         <v>1564844</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>217</v>
+        <v>618</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10124,7 +10094,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -10133,10 +10103,10 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>225</v>
@@ -10148,13 +10118,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10169,13 +10139,13 @@
         <v>327252</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>635</v>
+        <v>22</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="H37" s="7">
         <v>625</v>
@@ -10184,13 +10154,13 @@
         <v>431609</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="M37" s="7">
         <v>927</v>
@@ -10199,13 +10169,13 @@
         <v>758862</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>230</v>
+        <v>631</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10220,13 +10190,13 @@
         <v>3051945</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>643</v>
+        <v>31</v>
       </c>
       <c r="H38" s="7">
         <v>4718</v>
@@ -10235,13 +10205,13 @@
         <v>3354705</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="M38" s="7">
         <v>7786</v>
@@ -10250,13 +10220,13 @@
         <v>6406650</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10312,7 +10282,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1416-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AEC151F-80FE-4E2F-90CF-BC141D17C9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{249AE7A6-3A10-4C57-AC88-6DDB6EEE6850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D6E288D8-5C17-4B08-964C-EA8A8497E60C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{51E9DC28-746A-47FD-9916-CA94E446DA1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="596">
   <si>
     <t>Población con diagnóstico de alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -575,7 +575,58 @@
     <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>5,98%</t>
@@ -674,46 +725,40 @@
     <t>95,61%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>7,61%</t>
@@ -1358,424 +1403,430 @@
     <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
   </si>
   <si>
     <t>84,47%</t>
   </si>
   <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
   </si>
   <si>
     <t>86,21%</t>
   </si>
   <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>9,25%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
   </si>
   <si>
     <t>90,75%</t>
   </si>
   <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
   </si>
 </sst>
 </file>
@@ -2187,7 +2238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEBA9B6-E431-4176-BD0B-A974EEC14757}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ADF912-B317-417E-88C8-DB0552F0A693}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3599,7 +3650,7 @@
         <v>3002</v>
       </c>
       <c r="D29" s="7">
-        <v>3057265</v>
+        <v>3057264</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>167</v>
@@ -3614,7 +3665,7 @@
         <v>2982</v>
       </c>
       <c r="I29" s="7">
-        <v>3055168</v>
+        <v>3055167</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>170</v>
@@ -3629,7 +3680,7 @@
         <v>5984</v>
       </c>
       <c r="N29" s="7">
-        <v>6112431</v>
+        <v>6112432</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>173</v>
@@ -3650,7 +3701,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3665,7 +3716,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3680,7 +3731,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3718,7 +3769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3317FE-07FC-4727-99CF-66C116B2EA73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880C08EC-FFCA-4414-9E9A-B0D91A7D5296}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3836,43 +3887,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="7">
+        <v>21470</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="I4" s="7">
+        <v>32143</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="N4" s="7">
+        <v>53613</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,43 +3938,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>260</v>
+      </c>
+      <c r="D5" s="7">
+        <v>273268</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>228</v>
+      </c>
+      <c r="I5" s="7">
+        <v>255102</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>488</v>
+      </c>
+      <c r="N5" s="7">
+        <v>528370</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,43 +3989,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,10 +4048,10 @@
         <v>30227</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>162</v>
@@ -3994,13 +4063,13 @@
         <v>37361</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
@@ -4009,13 +4078,13 @@
         <v>67588</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4099,13 @@
         <v>475300</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>446</v>
@@ -4045,13 +4114,13 @@
         <v>486404</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>893</v>
@@ -4060,13 +4129,13 @@
         <v>961704</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4203,13 @@
         <v>12835</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -4149,13 +4218,13 @@
         <v>26920</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -4164,13 +4233,13 @@
         <v>39755</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4254,13 @@
         <v>311211</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H11" s="7">
         <v>292</v>
@@ -4200,13 +4269,13 @@
         <v>314100</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="M11" s="7">
         <v>599</v>
@@ -4215,13 +4284,13 @@
         <v>625311</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,49 +4352,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>38024</v>
+        <v>16555</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>61549</v>
+        <v>29406</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>99573</v>
+        <v>45961</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,49 +4403,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>588</v>
+        <v>328</v>
       </c>
       <c r="D14" s="7">
-        <v>630696</v>
+        <v>357427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
-        <v>571</v>
+        <v>343</v>
       </c>
       <c r="I14" s="7">
-        <v>614647</v>
+        <v>359545</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
-        <v>1159</v>
+        <v>671</v>
       </c>
       <c r="N14" s="7">
-        <v>1245343</v>
+        <v>716972</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,10 +4454,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4400,10 +4469,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4415,10 +4484,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4444,10 +4513,10 @@
         <v>16173</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>71</v>
@@ -4459,13 +4528,13 @@
         <v>26131</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -4474,13 +4543,13 @@
         <v>42304</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4564,13 @@
         <v>196445</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -4510,13 +4579,13 @@
         <v>193460</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>366</v>
@@ -4525,13 +4594,13 @@
         <v>389905</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4668,13 @@
         <v>15908</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -4614,13 +4683,13 @@
         <v>16072</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -4629,13 +4698,13 @@
         <v>31980</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4719,13 @@
         <v>258073</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>254</v>
@@ -4665,10 +4734,10 @@
         <v>263959</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>113</v>
@@ -4680,13 +4749,13 @@
         <v>522032</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4823,13 @@
         <v>22793</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -4769,10 +4838,10 @@
         <v>39187</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>160</v>
@@ -4790,7 +4859,7 @@
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4874,13 @@
         <v>639995</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>600</v>
@@ -4820,13 +4889,13 @@
         <v>654666</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>168</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="M23" s="7">
         <v>1196</v>
@@ -4838,7 +4907,7 @@
         <v>43</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>29</v>
@@ -4909,13 +4978,13 @@
         <v>39811</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -4924,13 +4993,13 @@
         <v>52971</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>88</v>
@@ -4939,13 +5008,13 @@
         <v>92781</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,13 +5029,13 @@
         <v>738265</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="H26" s="7">
         <v>705</v>
@@ -4975,13 +5044,13 @@
         <v>769607</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="M26" s="7">
         <v>1384</v>
@@ -4990,13 +5059,13 @@
         <v>1507873</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5133,13 @@
         <v>175771</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="H28" s="7">
         <v>243</v>
@@ -5079,13 +5148,13 @@
         <v>260191</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="M28" s="7">
         <v>407</v>
@@ -5094,13 +5163,13 @@
         <v>435962</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5184,13 @@
         <v>3249986</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="H29" s="7">
         <v>3054</v>
@@ -5130,13 +5199,13 @@
         <v>3296843</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="M29" s="7">
         <v>6098</v>
@@ -5145,13 +5214,13 @@
         <v>6546828</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,7 +5300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896E27B1-BEB8-42F7-995D-B8918B7BDF5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C6285D-0F19-412C-BBF9-2B2D72247882}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5248,7 +5317,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5355,13 +5424,13 @@
         <v>18543</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5370,13 +5439,13 @@
         <v>27188</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -5385,13 +5454,13 @@
         <v>45731</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5475,13 @@
         <v>275218</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>253</v>
@@ -5421,10 +5490,10 @@
         <v>261515</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>131</v>
@@ -5436,13 +5505,13 @@
         <v>536733</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5579,13 @@
         <v>18437</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -5525,13 +5594,13 @@
         <v>38254</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -5543,10 +5612,10 @@
         <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5630,13 @@
         <v>484138</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>447</v>
@@ -5576,13 +5645,13 @@
         <v>484830</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>905</v>
@@ -5594,10 +5663,10 @@
         <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5734,13 @@
         <v>13971</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5680,13 +5749,13 @@
         <v>13799</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -5695,13 +5764,13 @@
         <v>27770</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,13 +5785,13 @@
         <v>304594</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="H11" s="7">
         <v>317</v>
@@ -5731,13 +5800,13 @@
         <v>322510</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="M11" s="7">
         <v>637</v>
@@ -5746,13 +5815,13 @@
         <v>627104</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,13 +5889,13 @@
         <v>19575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -5835,13 +5904,13 @@
         <v>34897</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -5850,13 +5919,13 @@
         <v>54472</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5940,13 @@
         <v>350389</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="H14" s="7">
         <v>325</v>
@@ -5886,13 +5955,13 @@
         <v>352386</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>662</v>
@@ -5901,13 +5970,13 @@
         <v>702775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +6044,13 @@
         <v>11646</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -5990,13 +6059,13 @@
         <v>18594</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -6005,13 +6074,13 @@
         <v>30240</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6095,13 @@
         <v>199575</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -6041,13 +6110,13 @@
         <v>199993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="M17" s="7">
         <v>404</v>
@@ -6056,13 +6125,13 @@
         <v>399568</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,13 +6199,13 @@
         <v>16478</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -6145,13 +6214,13 @@
         <v>19510</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -6160,13 +6229,13 @@
         <v>35988</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,13 +6250,13 @@
         <v>246645</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>245</v>
@@ -6196,13 +6265,13 @@
         <v>253605</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>487</v>
@@ -6211,13 +6280,13 @@
         <v>500250</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,13 +6354,13 @@
         <v>19449</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -6300,13 +6369,13 @@
         <v>52772</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>66</v>
@@ -6318,10 +6387,10 @@
         <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6405,13 @@
         <v>637109</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="H23" s="7">
         <v>597</v>
@@ -6351,13 +6420,13 @@
         <v>638522</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="M23" s="7">
         <v>1160</v>
@@ -6369,10 +6438,10 @@
         <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,13 +6509,13 @@
         <v>49369</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="H25" s="7">
         <v>71</v>
@@ -6455,13 +6524,13 @@
         <v>76558</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
@@ -6470,13 +6539,13 @@
         <v>125927</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,13 +6560,13 @@
         <v>729214</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>684</v>
@@ -6506,13 +6575,13 @@
         <v>749609</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="M26" s="7">
         <v>1386</v>
@@ -6521,13 +6590,13 @@
         <v>1478823</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,13 +6664,13 @@
         <v>167469</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>266</v>
@@ -6610,13 +6679,13 @@
         <v>281571</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="M28" s="7">
         <v>426</v>
@@ -6625,13 +6694,13 @@
         <v>449040</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,13 +6715,13 @@
         <v>3226881</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="H29" s="7">
         <v>3072</v>
@@ -6661,13 +6730,13 @@
         <v>3262971</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="M29" s="7">
         <v>6143</v>
@@ -6676,13 +6745,13 @@
         <v>6489852</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,7 +6831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F814CA-6210-48E7-B432-EFA6803923E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D881E54-C86C-4759-8576-7E32948B8411}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6779,7 +6848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6883,46 +6952,46 @@
         <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>30924</v>
+        <v>42247</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
       </c>
       <c r="I4" s="7">
-        <v>13634</v>
+        <v>14394</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>459</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
       </c>
       <c r="N4" s="7">
-        <v>44557</v>
+        <v>56641</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>443</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>444</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6934,46 +7003,46 @@
         <v>305</v>
       </c>
       <c r="D5" s="7">
-        <v>229374</v>
+        <v>269196</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="H5" s="7">
         <v>508</v>
       </c>
       <c r="I5" s="7">
-        <v>257769</v>
+        <v>275241</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>465</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="M5" s="7">
         <v>813</v>
       </c>
       <c r="N5" s="7">
-        <v>487143</v>
+        <v>544436</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>452</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6985,7 +7054,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7000,7 +7069,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7015,7 +7084,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7038,46 +7107,46 @@
         <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>63891</v>
+        <v>64533</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>453</v>
+        <v>369</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
       </c>
       <c r="I7" s="7">
-        <v>69757</v>
+        <v>65456</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="M7" s="7">
         <v>132</v>
       </c>
       <c r="N7" s="7">
-        <v>133648</v>
+        <v>129989</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,46 +7158,46 @@
         <v>339</v>
       </c>
       <c r="D8" s="7">
-        <v>454336</v>
+        <v>452860</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>462</v>
+        <v>376</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="H8" s="7">
         <v>621</v>
       </c>
       <c r="I8" s="7">
-        <v>479104</v>
+        <v>444302</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="M8" s="7">
         <v>960</v>
       </c>
       <c r="N8" s="7">
-        <v>933440</v>
+        <v>897162</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,7 +7209,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7155,7 +7224,7 @@
         <v>711</v>
       </c>
       <c r="I9" s="7">
-        <v>548861</v>
+        <v>509758</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7170,7 +7239,7 @@
         <v>1092</v>
       </c>
       <c r="N9" s="7">
-        <v>1067088</v>
+        <v>1027151</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7193,46 +7262,46 @@
         <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>28988</v>
+        <v>28580</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
       </c>
       <c r="I10" s="7">
-        <v>38705</v>
+        <v>36254</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="M10" s="7">
         <v>84</v>
       </c>
       <c r="N10" s="7">
-        <v>67692</v>
+        <v>64834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>477</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,46 +7313,46 @@
         <v>330</v>
       </c>
       <c r="D11" s="7">
-        <v>293252</v>
+        <v>287470</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="H11" s="7">
         <v>482</v>
       </c>
       <c r="I11" s="7">
-        <v>334579</v>
+        <v>312874</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
         <v>812</v>
       </c>
       <c r="N11" s="7">
-        <v>627832</v>
+        <v>600344</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>486</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,7 +7364,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7310,7 +7379,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7325,7 +7394,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7348,46 +7417,46 @@
         <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>16312</v>
+        <v>16130</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>498</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>22117</v>
+        <v>20538</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>489</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>38429</v>
+        <v>36668</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>503</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,46 +7468,46 @@
         <v>279</v>
       </c>
       <c r="D14" s="7">
-        <v>305928</v>
+        <v>296427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>506</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="H14" s="7">
         <v>569</v>
       </c>
       <c r="I14" s="7">
-        <v>406439</v>
+        <v>455180</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>496</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="M14" s="7">
         <v>848</v>
       </c>
       <c r="N14" s="7">
-        <v>712367</v>
+        <v>751606</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>511</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,7 +7519,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7465,7 +7534,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7480,7 +7549,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7503,46 +7572,46 @@
         <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>20380</v>
+        <v>18509</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
       </c>
       <c r="I16" s="7">
-        <v>27339</v>
+        <v>24806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
       </c>
       <c r="N16" s="7">
-        <v>47719</v>
+        <v>43315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,46 +7623,46 @@
         <v>254</v>
       </c>
       <c r="D17" s="7">
-        <v>176368</v>
+        <v>160233</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="H17" s="7">
         <v>434</v>
       </c>
       <c r="I17" s="7">
-        <v>203401</v>
+        <v>182779</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="M17" s="7">
         <v>688</v>
       </c>
       <c r="N17" s="7">
-        <v>379768</v>
+        <v>343012</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,7 +7674,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7620,7 +7689,7 @@
         <v>489</v>
       </c>
       <c r="I18" s="7">
-        <v>230740</v>
+        <v>207585</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7635,7 +7704,7 @@
         <v>768</v>
       </c>
       <c r="N18" s="7">
-        <v>427487</v>
+        <v>386327</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7658,46 +7727,46 @@
         <v>46</v>
       </c>
       <c r="D19" s="7">
-        <v>38520</v>
+        <v>37416</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="H19" s="7">
         <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>48319</v>
+        <v>45117</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="M19" s="7">
         <v>128</v>
       </c>
       <c r="N19" s="7">
-        <v>86838</v>
+        <v>82534</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7709,46 +7778,46 @@
         <v>324</v>
       </c>
       <c r="D20" s="7">
-        <v>237770</v>
+        <v>231360</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="H20" s="7">
         <v>377</v>
       </c>
       <c r="I20" s="7">
-        <v>226586</v>
+        <v>211270</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="M20" s="7">
         <v>701</v>
       </c>
       <c r="N20" s="7">
-        <v>464356</v>
+        <v>442628</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,7 +7829,7 @@
         <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>276290</v>
+        <v>268776</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7775,7 +7844,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7790,7 +7859,7 @@
         <v>829</v>
       </c>
       <c r="N21" s="7">
-        <v>551194</v>
+        <v>525162</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7813,46 +7882,46 @@
         <v>74</v>
       </c>
       <c r="D22" s="7">
-        <v>72404</v>
+        <v>71160</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="H22" s="7">
         <v>163</v>
       </c>
       <c r="I22" s="7">
-        <v>117928</v>
+        <v>108527</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="M22" s="7">
         <v>237</v>
       </c>
       <c r="N22" s="7">
-        <v>190333</v>
+        <v>179686</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>542</v>
+        <v>215</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,46 +7933,46 @@
         <v>521</v>
       </c>
       <c r="D23" s="7">
-        <v>551323</v>
+        <v>549323</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H23" s="7">
         <v>796</v>
       </c>
       <c r="I23" s="7">
-        <v>685576</v>
+        <v>740106</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="M23" s="7">
         <v>1317</v>
       </c>
       <c r="N23" s="7">
-        <v>1236898</v>
+        <v>1289430</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>552</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7915,7 +7984,7 @@
         <v>595</v>
       </c>
       <c r="D24" s="7">
-        <v>623727</v>
+        <v>620483</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7930,7 +7999,7 @@
         <v>959</v>
       </c>
       <c r="I24" s="7">
-        <v>803504</v>
+        <v>848633</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7945,7 +8014,7 @@
         <v>1554</v>
       </c>
       <c r="N24" s="7">
-        <v>1427231</v>
+        <v>1469116</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7968,46 +8037,46 @@
         <v>46</v>
       </c>
       <c r="D25" s="7">
-        <v>55835</v>
+        <v>46439</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="H25" s="7">
         <v>121</v>
       </c>
       <c r="I25" s="7">
-        <v>93811</v>
+        <v>77900</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>473</v>
+        <v>567</v>
       </c>
       <c r="M25" s="7">
         <v>167</v>
       </c>
       <c r="N25" s="7">
-        <v>149646</v>
+        <v>124339</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>104</v>
+        <v>568</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>53</v>
+        <v>569</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8019,46 +8088,46 @@
         <v>716</v>
       </c>
       <c r="D26" s="7">
-        <v>803593</v>
+        <v>882281</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="H26" s="7">
         <v>931</v>
       </c>
       <c r="I26" s="7">
-        <v>761251</v>
+        <v>629088</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>480</v>
+        <v>575</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="M26" s="7">
         <v>1647</v>
       </c>
       <c r="N26" s="7">
-        <v>1564844</v>
+        <v>1511370</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>112</v>
+        <v>577</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>60</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,7 +8139,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8085,7 +8154,7 @@
         <v>1052</v>
       </c>
       <c r="I27" s="7">
-        <v>855062</v>
+        <v>706988</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8100,7 +8169,7 @@
         <v>1814</v>
       </c>
       <c r="N27" s="7">
-        <v>1714490</v>
+        <v>1635709</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8123,46 +8192,46 @@
         <v>302</v>
       </c>
       <c r="D28" s="7">
-        <v>327252</v>
+        <v>325015</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>539</v>
+        <v>580</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="H28" s="7">
         <v>625</v>
       </c>
       <c r="I28" s="7">
-        <v>431609</v>
+        <v>392992</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>568</v>
+        <v>383</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="M28" s="7">
         <v>927</v>
       </c>
       <c r="N28" s="7">
-        <v>758862</v>
+        <v>718007</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>40</v>
+        <v>585</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8174,46 +8243,46 @@
         <v>3068</v>
       </c>
       <c r="D29" s="7">
-        <v>3051945</v>
+        <v>3129149</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>549</v>
+        <v>588</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="H29" s="7">
         <v>4718</v>
       </c>
       <c r="I29" s="7">
-        <v>3354705</v>
+        <v>3250840</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>576</v>
+        <v>390</v>
       </c>
       <c r="M29" s="7">
         <v>7786</v>
       </c>
       <c r="N29" s="7">
-        <v>6406650</v>
+        <v>6379989</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>48</v>
+        <v>593</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,7 +8294,7 @@
         <v>3370</v>
       </c>
       <c r="D30" s="7">
-        <v>3379197</v>
+        <v>3454164</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8240,7 +8309,7 @@
         <v>5343</v>
       </c>
       <c r="I30" s="7">
-        <v>3786314</v>
+        <v>3643832</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8255,7 +8324,7 @@
         <v>8713</v>
       </c>
       <c r="N30" s="7">
-        <v>7165512</v>
+        <v>7097996</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
